--- a/docs/omh-step-count.xlsx
+++ b/docs/omh-step-count.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$9</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="86">
   <si>
     <t>Path</t>
   </si>
@@ -140,10 +140,10 @@
     <t>The LOINC code refers to Number of steps in unspecified time Pedometer", "url": "http://purl.bioontology.org/ontology/LNC/55423-8".</t>
   </si>
   <si>
-    <t>properties</t>
-  </si>
-  <si>
-    <t>Observation.code (LOINC code '55423-8' = 'Number of steps in unspecified time Pedometer')</t>
+    <t>OMH Step Count Schema</t>
+  </si>
+  <si>
+    <t>Observation resource with Observation.code  = LOINC 55423-8 (Number of steps in unspecified time Pedometer)</t>
   </si>
   <si>
     <t>OmhStepCount.id</t>
@@ -195,6 +195,19 @@
     <t>open</t>
   </si>
   <si>
+    <t>OmhStepCount.omhHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement {[CanonicalType[http://www.fhir.org/guides/mfhir/StructureDefinition/omh-header]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The header property represents the header of a data transaction</t>
+  </si>
+  <si>
+    <t>see OmhHeader Mapping tables</t>
+  </si>
+  <si>
     <t>OmhStepCount.stepCount</t>
   </si>
   <si>
@@ -208,7 +221,7 @@
     <t>properties.step_count</t>
   </si>
   <si>
-    <t>Observation.valueQuantity</t>
+    <t>Rule1: IF no descriptiveStatistic (descriptiveStatistic.empty()) Observation.valueQuantity.value ELSE Observation.component.valueQuantity.value</t>
   </si>
   <si>
     <t>OmhStepCount.effectiveTimeFrame</t>
@@ -249,7 +262,7 @@
     <t>properties.descriptive_statistic</t>
   </si>
   <si>
-    <t>Observation.code.coding (translation to more specific code) or Observation.component (component observation code value pair)</t>
+    <t>Observation.component.code</t>
   </si>
   <si>
     <t>OmhStepCount.descriptiveStatisticDenominator</t>
@@ -265,6 +278,9 @@
   </si>
   <si>
     <t>properties.descriptive_statistic_denominator</t>
+  </si>
+  <si>
+    <t>Observation.component.valueQuantity.unit|code (ConceptMap based on code and descriptiveStatisticDenominator)</t>
   </si>
 </sst>
 </file>
@@ -413,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL8"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -458,7 +474,7 @@
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="43.18359375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="122.47265625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="136.8359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -963,12 +979,12 @@
         <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -991,11 +1007,11 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1057,15 +1073,15 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>66</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>67</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1073,7 +1089,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>44</v>
@@ -1088,11 +1104,11 @@
         <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1119,13 +1135,13 @@
         <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>38</v>
@@ -1154,15 +1170,15 @@
         <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1185,11 +1201,11 @@
         <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" t="s" s="2">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1216,13 +1232,13 @@
         <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
         <v>38</v>
@@ -1251,14 +1267,111 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" hidden="true">
+      <c r="A9" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AK8" t="s" s="2">
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W9" t="s" s="2">
         <v>75</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG9" s="2"/>
+      <c r="AH9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK8">
+  <autoFilter ref="A1:AK9">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1268,7 +1381,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI7">
+  <conditionalFormatting sqref="A2:AI8">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/omh-step-count.xlsx
+++ b/docs/omh-step-count.xlsx
@@ -438,9 +438,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.00390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.37109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.91015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
@@ -448,7 +448,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="45.9765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="43.28515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -462,10 +462,10 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="75.88671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.00390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="10.21484375" customWidth="true" bestFit="true" hidden="true"/>
@@ -473,8 +473,8 @@
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="43.18359375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="136.8359375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="40.58203125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="128.3671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/omh-step-count.xlsx
+++ b/docs/omh-step-count.xlsx
@@ -152,7 +152,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -172,7 +172,7 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -198,7 +198,7 @@
     <t>OmhStepCount.omhHeader</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[CanonicalType[http://www.fhir.org/guides/mfhir/StructureDefinition/omh-header]]} {[]}
+    <t xml:space="preserve">BackboneElement {http://www.fhir.org/guides/mfhir/StructureDefinition/omh-header}
 </t>
   </si>
   <si>
@@ -211,7 +211,7 @@
     <t>OmhStepCount.stepCount</t>
   </si>
   <si>
-    <t xml:space="preserve">decimal {[]} {[]}
+    <t xml:space="preserve">decimal
 </t>
   </si>
   <si>
@@ -227,7 +227,7 @@
     <t>OmhStepCount.effectiveTimeFrame</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -243,7 +243,7 @@
     <t>OmhStepCount.descriptiveStatistic</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -333,67 +333,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -429,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AK9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
